--- a/MagnetGame/Project1/Assets/CSV/alpha1-104.xlsx
+++ b/MagnetGame/Project1/Assets/CSV/alpha1-104.xlsx
@@ -19,7 +19,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+  <si>
+    <t>g0|S|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g0|S|0|1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g1|N|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g1|N|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>g1|N|1|0</t>
+    <phoneticPr fontId="18"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6:AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1127,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="AL1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN1">
         <v>1</v>
@@ -1141,112 +1162,112 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1370,10 +1391,10 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="AL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
         <v>0</v>
       </c>
       <c r="AN3">
@@ -1492,10 +1513,10 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="AL4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM4" t="s">
         <v>0</v>
       </c>
       <c r="AN4">
@@ -1614,11 +1635,11 @@
       <c r="AK5">
         <v>0</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -1736,11 +1757,11 @@
       <c r="AK6">
         <v>0</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
+      <c r="AL6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>2</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -1858,11 +1879,11 @@
       <c r="AK7">
         <v>0</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
+      <c r="AL7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>2</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -1980,11 +2001,11 @@
       <c r="AK8">
         <v>0</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
+      <c r="AL8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>2</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -2102,11 +2123,11 @@
       <c r="AK9">
         <v>0</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
+      <c r="AL9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>2</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -2224,11 +2245,11 @@
       <c r="AK10">
         <v>0</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
+      <c r="AL10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>3</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -2346,11 +2367,11 @@
       <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
+      <c r="AL11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>2</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -2468,11 +2489,11 @@
       <c r="AK12">
         <v>0</v>
       </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
+      <c r="AL12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>2</v>
       </c>
       <c r="AN12">
         <v>1</v>
@@ -2590,11 +2611,11 @@
       <c r="AK13">
         <v>0</v>
       </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
+      <c r="AL13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>2</v>
       </c>
       <c r="AN13">
         <v>1</v>
@@ -2712,11 +2733,11 @@
       <c r="AK14">
         <v>0</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
+      <c r="AL14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>3</v>
       </c>
       <c r="AN14">
         <v>1</v>
@@ -2834,11 +2855,11 @@
       <c r="AK15">
         <v>0</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
+      <c r="AL15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>4</v>
       </c>
       <c r="AN15">
         <v>1</v>
@@ -2956,11 +2977,11 @@
       <c r="AK16">
         <v>0</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
+      <c r="AL16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>2</v>
       </c>
       <c r="AN16">
         <v>1</v>
@@ -3078,11 +3099,11 @@
       <c r="AK17">
         <v>0</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
+      <c r="AL17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>2</v>
       </c>
       <c r="AN17">
         <v>1</v>
@@ -3200,11 +3221,11 @@
       <c r="AK18">
         <v>0</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
+      <c r="AL18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>2</v>
       </c>
       <c r="AN18">
         <v>1</v>
@@ -3322,11 +3343,11 @@
       <c r="AK19">
         <v>0</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
-        <v>0</v>
+      <c r="AL19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>2</v>
       </c>
       <c r="AN19">
         <v>1</v>
@@ -3444,11 +3465,11 @@
       <c r="AK20">
         <v>0</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
+      <c r="AL20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>2</v>
       </c>
       <c r="AN20">
         <v>1</v>
@@ -3566,11 +3587,11 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>0</v>
+      <c r="AL21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>2</v>
       </c>
       <c r="AN21">
         <v>1</v>
@@ -3688,11 +3709,11 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
+      <c r="AL22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>2</v>
       </c>
       <c r="AN22">
         <v>1</v>
